--- a/biology/Zoologie/Gobemouche_des_îles/Gobemouche_des_îles.xlsx
+++ b/biology/Zoologie/Gobemouche_des_îles/Gobemouche_des_îles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumyias panayensis
 Le Gobemouche des îles (Eumyias panayensis) est une espèce d'oiseaux de la famille des Muscicapidae. Son aire s'étend à travers les Philippines et l'Indonésie (Célèbes et Moluques).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eumyias panayensis a été décrite en 1877 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eumyias panayensis a été décrite en 1877 par l'ornithologue britannique Richard Bowdler Sharpe (1847-1909),.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1877, l'auteur indique que cette espèce mesure environ 150 mm de longueur totale[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1877, l'auteur indique que cette espèce mesure environ 150 mm de longueur totale. 
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Eumyias panayensis nigrimentalis (Ogilvie-Grant, 1894)
 sous-espèce Eumyias panayensis panayensis Sharpe, 1877
 sous-espèce Eumyias panayensis nigriloris (Hartert, E, 1904)
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de panay et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, Panay[2], l'île des Philippines située dans les Visayas. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de panay et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, Panay, l'île des Philippines située dans les Visayas. 
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gobemouche_des_%C3%AEles</t>
+          <t>Gobemouche_des_îles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) R. Bowdler Sharpe, « On the Birds collected by Professor J. B. Steere in the Philippine Archipelago », Transactions of the Linnean Society of London: Zoology, Linnean Society of London, vol. 1, no 6,‎ novembre 1877, p. 307-356 (ISSN 1945-9440 et 1945-9343, lire en ligne)</t>
         </is>
